--- a/PRT_sankey.xlsx
+++ b/PRT_sankey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TV128\Documents\PRT\prt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E09A37B-6F81-4434-A19B-61BF69E3D32E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5BC5F4-A233-4755-A0B8-3A2C7F1FEB5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6765" xr2:uid="{E29C94FD-312E-4A08-B006-DD577203C0BB}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>witness characteristics;victim characteristics</t>
   </si>
   <si>
-    <t>road type;condition</t>
-  </si>
-  <si>
     <t>travel distance;community characteristics</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>Mazerolle et al (1998)</t>
+  </si>
+  <si>
+    <t>road type;road condition</t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,7 @@
   <dimension ref="A1:O549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,16 +991,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1018,19 +1018,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1049,19 +1049,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1076,19 +1076,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1103,19 +1103,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1130,19 +1130,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1157,19 +1157,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1184,19 +1184,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1211,19 +1211,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1238,19 +1238,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1265,19 +1265,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1292,19 +1292,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1319,19 +1319,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1346,19 +1346,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1373,19 +1373,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1400,19 +1400,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1427,19 +1427,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -1487,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1514,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1541,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -1622,13 +1622,13 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1649,13 +1649,13 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1676,13 +1676,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1784,13 +1784,13 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1811,13 +1811,13 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1838,13 +1838,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1946,13 +1946,13 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2000,13 +2000,13 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2027,13 +2027,13 @@
         <v>18</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>19</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>20</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -2135,7 +2135,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -2162,7 +2162,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2189,7 +2189,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -2216,7 +2216,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -2243,7 +2243,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -2270,7 +2270,7 @@
         <v>20</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
@@ -2297,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -2318,19 +2318,19 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2345,19 +2345,19 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2372,19 +2372,19 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2399,19 +2399,19 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2426,19 +2426,19 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2453,19 +2453,19 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2480,19 +2480,19 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2513,13 +2513,13 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2540,13 +2540,13 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
         <v>25</v>
@@ -2594,7 +2594,7 @@
         <v>24</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
@@ -2621,7 +2621,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -2648,7 +2648,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -2675,7 +2675,7 @@
         <v>24</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
@@ -2702,7 +2702,7 @@
         <v>24</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -2729,7 +2729,7 @@
         <v>27</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -2756,7 +2756,7 @@
         <v>27</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -2783,7 +2783,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -2804,19 +2804,19 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>29</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2864,13 +2864,13 @@
         <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2891,13 +2891,13 @@
         <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>29</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2945,13 +2945,13 @@
         <v>29</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2972,13 +2972,13 @@
         <v>29</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
         <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2999,13 +2999,13 @@
         <v>29</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
         <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         <v>29</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3047,13 +3047,13 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" t="s">
         <v>52</v>
@@ -3074,13 +3074,13 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
         <v>52</v>
@@ -3101,13 +3101,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" t="s">
         <v>52</v>
@@ -3128,13 +3128,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80" t="s">
         <v>52</v>
@@ -3155,13 +3155,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
         <v>52</v>
@@ -3182,13 +3182,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82" t="s">
         <v>52</v>
@@ -3209,13 +3209,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" t="s">
         <v>52</v>
@@ -3236,13 +3236,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D84" t="s">
         <v>52</v>
@@ -3266,10 +3266,10 @@
         <v>32</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" t="s">
         <v>33</v>
@@ -3293,10 +3293,10 @@
         <v>32</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" t="s">
         <v>34</v>
@@ -3320,13 +3320,13 @@
         <v>32</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E87" t="s">
         <v>2</v>
@@ -3347,10 +3347,10 @@
         <v>32</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D88" t="s">
         <v>34</v>
@@ -3374,10 +3374,10 @@
         <v>32</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89" t="s">
         <v>34</v>
@@ -3401,10 +3401,10 @@
         <v>32</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
@@ -3428,10 +3428,10 @@
         <v>32</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
@@ -3455,10 +3455,10 @@
         <v>32</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -3482,10 +3482,10 @@
         <v>32</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -3509,10 +3509,10 @@
         <v>32</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -3536,10 +3536,10 @@
         <v>32</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -3563,10 +3563,10 @@
         <v>32</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -3590,10 +3590,10 @@
         <v>32</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -3620,13 +3620,13 @@
         <v>36</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3647,13 +3647,13 @@
         <v>36</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3674,13 +3674,13 @@
         <v>36</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3701,13 +3701,13 @@
         <v>36</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3728,13 +3728,13 @@
         <v>36</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3755,13 +3755,13 @@
         <v>36</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D103" t="s">
         <v>30</v>
       </c>
       <c r="E103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>36</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3809,13 +3809,13 @@
         <v>36</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D105" t="s">
         <v>31</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3830,19 +3830,19 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D106" t="s">
         <v>31</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -3857,19 +3857,19 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D107" t="s">
         <v>37</v>
       </c>
       <c r="E107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -3884,19 +3884,19 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D108" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -3911,16 +3911,16 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
@@ -3938,13 +3938,13 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -3965,13 +3965,13 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -3998,13 +3998,13 @@
         <v>38</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>38</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4052,13 +4052,13 @@
         <v>38</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -4079,13 +4079,13 @@
         <v>38</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>38</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -4133,13 +4133,13 @@
         <v>38</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -4160,13 +4160,13 @@
         <v>38</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -4187,13 +4187,13 @@
         <v>38</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -4214,13 +4214,13 @@
         <v>38</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -4241,13 +4241,13 @@
         <v>38</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -4268,13 +4268,13 @@
         <v>38</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -4295,13 +4295,13 @@
         <v>38</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -4322,13 +4322,13 @@
         <v>38</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -4349,13 +4349,13 @@
         <v>38</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -4376,13 +4376,13 @@
         <v>38</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -4403,13 +4403,13 @@
         <v>38</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -4430,13 +4430,13 @@
         <v>38</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -4457,13 +4457,13 @@
         <v>38</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -4484,13 +4484,13 @@
         <v>38</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -4511,13 +4511,13 @@
         <v>38</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4538,13 +4538,13 @@
         <v>38</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -4565,13 +4565,13 @@
         <v>38</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D133" t="s">
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -4592,13 +4592,13 @@
         <v>38</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4619,13 +4619,13 @@
         <v>38</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -4646,13 +4646,13 @@
         <v>38</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -4673,13 +4673,13 @@
         <v>38</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -4700,13 +4700,13 @@
         <v>38</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4727,13 +4727,13 @@
         <v>38</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4754,13 +4754,13 @@
         <v>38</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D140" t="s">
         <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4781,13 +4781,13 @@
         <v>38</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -4808,13 +4808,13 @@
         <v>38</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D142" t="s">
         <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -4835,13 +4835,13 @@
         <v>38</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D143" t="s">
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -4862,13 +4862,13 @@
         <v>38</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D144" t="s">
         <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -4889,13 +4889,13 @@
         <v>38</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>38</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -4943,13 +4943,13 @@
         <v>38</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D147" t="s">
         <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -4970,13 +4970,13 @@
         <v>38</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D148" t="s">
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -4997,13 +4997,13 @@
         <v>38</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -5024,13 +5024,13 @@
         <v>38</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D150" t="s">
         <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -5051,13 +5051,13 @@
         <v>38</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D151" t="s">
         <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -5078,13 +5078,13 @@
         <v>38</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D152" t="s">
         <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -5105,13 +5105,13 @@
         <v>38</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D153" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E153" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -5132,13 +5132,13 @@
         <v>38</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E154" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -5159,13 +5159,13 @@
         <v>38</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E155" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -5186,13 +5186,13 @@
         <v>38</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D156" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E156" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -5213,13 +5213,13 @@
         <v>38</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D157" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -5240,13 +5240,13 @@
         <v>38</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E158" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -5267,13 +5267,13 @@
         <v>38</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E159" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -5294,13 +5294,13 @@
         <v>38</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E160" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5321,13 +5321,13 @@
         <v>38</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E161" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -5348,13 +5348,13 @@
         <v>38</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D162" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E162" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -5375,13 +5375,13 @@
         <v>38</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D163" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E163" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -5402,13 +5402,13 @@
         <v>38</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E164" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -5429,13 +5429,13 @@
         <v>38</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E165" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -5456,13 +5456,13 @@
         <v>38</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -5483,13 +5483,13 @@
         <v>38</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E167" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -5510,13 +5510,13 @@
         <v>38</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D168" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E168" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         <v>38</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D169" t="s">
         <v>31</v>
       </c>
       <c r="E169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -5564,13 +5564,13 @@
         <v>38</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D170" t="s">
         <v>31</v>
       </c>
       <c r="E170" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -5591,13 +5591,13 @@
         <v>38</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D171" t="s">
         <v>31</v>
       </c>
       <c r="E171" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -5618,13 +5618,13 @@
         <v>38</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D172" t="s">
         <v>31</v>
       </c>
       <c r="E172" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -5645,13 +5645,13 @@
         <v>38</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D173" t="s">
         <v>31</v>
       </c>
       <c r="E173" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -5672,13 +5672,13 @@
         <v>38</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D174" t="s">
         <v>31</v>
       </c>
       <c r="E174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -5699,13 +5699,13 @@
         <v>38</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D175" t="s">
         <v>31</v>
       </c>
       <c r="E175" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -5726,13 +5726,13 @@
         <v>38</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D176" t="s">
         <v>31</v>
       </c>
       <c r="E176" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -5753,13 +5753,13 @@
         <v>38</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D177" t="s">
         <v>31</v>
       </c>
       <c r="E177" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -5780,13 +5780,13 @@
         <v>38</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D178" t="s">
         <v>31</v>
       </c>
       <c r="E178" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -5807,13 +5807,13 @@
         <v>38</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D179" t="s">
         <v>31</v>
       </c>
       <c r="E179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -5834,13 +5834,13 @@
         <v>38</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D180" t="s">
         <v>31</v>
       </c>
       <c r="E180" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -5861,13 +5861,13 @@
         <v>38</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D181" t="s">
         <v>31</v>
       </c>
       <c r="E181" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -5888,13 +5888,13 @@
         <v>38</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D182" t="s">
         <v>31</v>
       </c>
       <c r="E182" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -5915,13 +5915,13 @@
         <v>38</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D183" t="s">
         <v>31</v>
       </c>
       <c r="E183" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -5942,13 +5942,13 @@
         <v>38</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D184" t="s">
         <v>31</v>
       </c>
       <c r="E184" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -5969,13 +5969,13 @@
         <v>38</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D185" t="s">
         <v>31</v>
       </c>
       <c r="E185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -5996,13 +5996,13 @@
         <v>38</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D186" t="s">
         <v>31</v>
       </c>
       <c r="E186" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -6023,13 +6023,13 @@
         <v>38</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D187" t="s">
         <v>31</v>
       </c>
       <c r="E187" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -6050,13 +6050,13 @@
         <v>38</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D188" t="s">
         <v>31</v>
       </c>
       <c r="E188" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -6077,13 +6077,13 @@
         <v>38</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D189" t="s">
         <v>31</v>
       </c>
       <c r="E189" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         <v>38</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D190" t="s">
         <v>31</v>
       </c>
       <c r="E190" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -6131,13 +6131,13 @@
         <v>38</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D191" t="s">
         <v>31</v>
       </c>
       <c r="E191" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -6158,13 +6158,13 @@
         <v>38</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D192" t="s">
         <v>31</v>
       </c>
       <c r="E192" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -6182,10 +6182,10 @@
         <v>39</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D193" t="s">
         <v>13</v>
@@ -6209,10 +6209,10 @@
         <v>39</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D194" t="s">
         <v>13</v>
@@ -6236,10 +6236,10 @@
         <v>39</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D195" t="s">
         <v>13</v>
@@ -6263,10 +6263,10 @@
         <v>39</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D196" t="s">
         <v>13</v>
@@ -6290,10 +6290,10 @@
         <v>39</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D197" t="s">
         <v>13</v>
@@ -6317,10 +6317,10 @@
         <v>39</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D198" t="s">
         <v>13</v>
@@ -6344,10 +6344,10 @@
         <v>39</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
@@ -6371,10 +6371,10 @@
         <v>39</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D200" t="s">
         <v>13</v>
@@ -6398,10 +6398,10 @@
         <v>39</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -6425,10 +6425,10 @@
         <v>39</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
@@ -6452,10 +6452,10 @@
         <v>39</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D203" t="s">
         <v>13</v>
@@ -6479,10 +6479,10 @@
         <v>39</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D204" t="s">
         <v>13</v>
@@ -6506,10 +6506,10 @@
         <v>39</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D205" t="s">
         <v>13</v>
@@ -6533,10 +6533,10 @@
         <v>39</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D206" t="s">
         <v>13</v>
@@ -6560,10 +6560,10 @@
         <v>39</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D207" t="s">
         <v>13</v>
@@ -6587,10 +6587,10 @@
         <v>39</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D208" t="s">
         <v>13</v>
@@ -6614,10 +6614,10 @@
         <v>39</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
@@ -6641,10 +6641,10 @@
         <v>39</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D210" t="s">
         <v>13</v>
@@ -6668,10 +6668,10 @@
         <v>39</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D211" t="s">
         <v>13</v>
@@ -6695,10 +6695,10 @@
         <v>39</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D212" t="s">
         <v>13</v>
@@ -6722,10 +6722,10 @@
         <v>39</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D213" t="s">
         <v>13</v>
@@ -6749,10 +6749,10 @@
         <v>39</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
@@ -6776,10 +6776,10 @@
         <v>39</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D215" t="s">
         <v>13</v>
@@ -6803,10 +6803,10 @@
         <v>39</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
@@ -6830,10 +6830,10 @@
         <v>39</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D217" t="s">
         <v>13</v>
@@ -6857,10 +6857,10 @@
         <v>39</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D218" t="s">
         <v>13</v>
@@ -6884,10 +6884,10 @@
         <v>39</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D219" t="s">
         <v>13</v>
@@ -6911,10 +6911,10 @@
         <v>39</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D220" t="s">
         <v>13</v>
@@ -6938,10 +6938,10 @@
         <v>39</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D221" t="s">
         <v>13</v>
@@ -6965,10 +6965,10 @@
         <v>39</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
@@ -6992,10 +6992,10 @@
         <v>39</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D223" t="s">
         <v>13</v>
@@ -7019,10 +7019,10 @@
         <v>39</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D224" t="s">
         <v>13</v>
@@ -7046,10 +7046,10 @@
         <v>39</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D225" t="s">
         <v>10</v>
@@ -7073,10 +7073,10 @@
         <v>39</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D226" t="s">
         <v>53</v>
@@ -7100,10 +7100,10 @@
         <v>39</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D227" t="s">
         <v>53</v>
@@ -7127,10 +7127,10 @@
         <v>39</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D228" t="s">
         <v>53</v>
@@ -7154,10 +7154,10 @@
         <v>39</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D229" t="s">
         <v>53</v>
@@ -7181,10 +7181,10 @@
         <v>39</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D230" t="s">
         <v>53</v>
@@ -7208,10 +7208,10 @@
         <v>39</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D231" t="s">
         <v>53</v>
@@ -7235,10 +7235,10 @@
         <v>39</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D232" t="s">
         <v>53</v>
@@ -7262,10 +7262,10 @@
         <v>39</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D233" t="s">
         <v>53</v>
@@ -7289,10 +7289,10 @@
         <v>39</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D234" t="s">
         <v>53</v>
@@ -7316,10 +7316,10 @@
         <v>39</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D235" t="s">
         <v>53</v>
@@ -7343,10 +7343,10 @@
         <v>39</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D236" t="s">
         <v>13</v>
@@ -7370,10 +7370,10 @@
         <v>39</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D237" t="s">
         <v>13</v>
@@ -7397,10 +7397,10 @@
         <v>39</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D238" t="s">
         <v>13</v>
@@ -7424,10 +7424,10 @@
         <v>39</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D239" t="s">
         <v>13</v>
@@ -7451,10 +7451,10 @@
         <v>39</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D240" t="s">
         <v>13</v>
@@ -7478,10 +7478,10 @@
         <v>39</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D241" t="s">
         <v>13</v>
@@ -7505,10 +7505,10 @@
         <v>39</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D242" t="s">
         <v>13</v>
@@ -7532,10 +7532,10 @@
         <v>39</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D243" t="s">
         <v>13</v>
@@ -7559,10 +7559,10 @@
         <v>39</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D244" t="s">
         <v>33</v>
@@ -7586,10 +7586,10 @@
         <v>39</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D245" t="s">
         <v>33</v>
@@ -7613,10 +7613,10 @@
         <v>39</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D246" t="s">
         <v>33</v>
@@ -7640,10 +7640,10 @@
         <v>39</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D247" t="s">
         <v>33</v>
@@ -7667,10 +7667,10 @@
         <v>39</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D248" t="s">
         <v>33</v>
@@ -7694,10 +7694,10 @@
         <v>39</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D249" t="s">
         <v>33</v>
@@ -7721,10 +7721,10 @@
         <v>39</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D250" t="s">
         <v>33</v>
@@ -7748,10 +7748,10 @@
         <v>39</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D251" t="s">
         <v>40</v>
@@ -7775,10 +7775,10 @@
         <v>39</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D252" t="s">
         <v>33</v>
@@ -7802,10 +7802,10 @@
         <v>39</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D253" t="s">
         <v>13</v>
@@ -7829,10 +7829,10 @@
         <v>39</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D254" t="s">
         <v>13</v>
@@ -7856,10 +7856,10 @@
         <v>39</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D255" t="s">
         <v>13</v>
@@ -7883,10 +7883,10 @@
         <v>39</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D256" t="s">
         <v>13</v>
@@ -7910,10 +7910,10 @@
         <v>39</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D257" t="s">
         <v>13</v>
@@ -7937,10 +7937,10 @@
         <v>39</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D258" t="s">
         <v>13</v>
@@ -7964,10 +7964,10 @@
         <v>39</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D259" t="s">
         <v>13</v>
@@ -7991,10 +7991,10 @@
         <v>39</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D260" t="s">
         <v>13</v>
@@ -8021,13 +8021,13 @@
         <v>41</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D261" t="s">
         <v>17</v>
       </c>
       <c r="E261" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -8048,13 +8048,13 @@
         <v>41</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D262" t="s">
         <v>17</v>
       </c>
       <c r="E262" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>41</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D263" t="s">
         <v>17</v>
       </c>
       <c r="E263" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -8102,13 +8102,13 @@
         <v>41</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D264" t="s">
         <v>5</v>
       </c>
       <c r="E264" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -8129,13 +8129,13 @@
         <v>41</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D265" t="s">
         <v>7</v>
       </c>
       <c r="E265" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -8156,13 +8156,13 @@
         <v>41</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D266" t="s">
         <v>30</v>
       </c>
       <c r="E266" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -8183,13 +8183,13 @@
         <v>41</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D267" t="s">
         <v>31</v>
       </c>
       <c r="E267" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -8210,13 +8210,13 @@
         <v>41</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D268" t="s">
         <v>13</v>
       </c>
       <c r="E268" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -8237,13 +8237,13 @@
         <v>41</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D269" t="s">
         <v>17</v>
       </c>
       <c r="E269" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -8264,13 +8264,13 @@
         <v>41</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D270" t="s">
         <v>17</v>
       </c>
       <c r="E270" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>41</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D271" t="s">
         <v>17</v>
       </c>
       <c r="E271" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -8318,13 +8318,13 @@
         <v>41</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D272" t="s">
         <v>5</v>
       </c>
       <c r="E272" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -8345,13 +8345,13 @@
         <v>41</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D273" t="s">
         <v>7</v>
       </c>
       <c r="E273" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -8372,13 +8372,13 @@
         <v>41</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D274" t="s">
         <v>30</v>
       </c>
       <c r="E274" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -8399,13 +8399,13 @@
         <v>41</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D275" t="s">
         <v>31</v>
       </c>
       <c r="E275" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -8426,13 +8426,13 @@
         <v>41</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D276" t="s">
         <v>13</v>
       </c>
       <c r="E276" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -8453,13 +8453,13 @@
         <v>42</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D277" t="s">
         <v>17</v>
       </c>
       <c r="E277" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -8480,13 +8480,13 @@
         <v>42</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D278" t="s">
         <v>17</v>
       </c>
       <c r="E278" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -8507,13 +8507,13 @@
         <v>42</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D279" t="s">
         <v>17</v>
       </c>
       <c r="E279" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -8534,13 +8534,13 @@
         <v>42</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D280" t="s">
         <v>17</v>
       </c>
       <c r="E280" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H280">
         <v>1</v>
@@ -8561,13 +8561,13 @@
         <v>42</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D281" t="s">
         <v>17</v>
       </c>
       <c r="E281" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -8588,13 +8588,13 @@
         <v>42</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D282" t="s">
         <v>17</v>
       </c>
       <c r="E282" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -8615,13 +8615,13 @@
         <v>42</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D283" t="s">
         <v>17</v>
       </c>
       <c r="E283" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -8642,13 +8642,13 @@
         <v>42</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D284" t="s">
         <v>17</v>
       </c>
       <c r="E284" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -8669,7 +8669,7 @@
         <v>42</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D285" t="s">
         <v>17</v>
@@ -8696,7 +8696,7 @@
         <v>42</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D286" t="s">
         <v>17</v>
@@ -8723,7 +8723,7 @@
         <v>42</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D287" t="s">
         <v>17</v>
@@ -8750,7 +8750,7 @@
         <v>42</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D288" t="s">
         <v>17</v>
@@ -8777,7 +8777,7 @@
         <v>42</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D289" t="s">
         <v>17</v>
@@ -8804,7 +8804,7 @@
         <v>42</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D290" t="s">
         <v>17</v>
@@ -8831,7 +8831,7 @@
         <v>42</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D291" t="s">
         <v>17</v>
@@ -8858,7 +8858,7 @@
         <v>42</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D292" t="s">
         <v>17</v>
@@ -8885,7 +8885,7 @@
         <v>42</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D293" t="s">
         <v>17</v>
@@ -8912,7 +8912,7 @@
         <v>42</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D294" t="s">
         <v>17</v>
@@ -8939,7 +8939,7 @@
         <v>42</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D295" t="s">
         <v>17</v>
@@ -8966,7 +8966,7 @@
         <v>42</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D296" t="s">
         <v>17</v>
@@ -8993,7 +8993,7 @@
         <v>42</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D297" t="s">
         <v>17</v>
@@ -9020,7 +9020,7 @@
         <v>42</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D298" t="s">
         <v>17</v>
@@ -9047,7 +9047,7 @@
         <v>42</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D299" t="s">
         <v>17</v>
@@ -9074,7 +9074,7 @@
         <v>42</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D300" t="s">
         <v>17</v>
@@ -9101,13 +9101,13 @@
         <v>43</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D301" t="s">
         <v>14</v>
       </c>
       <c r="E301" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -9128,13 +9128,13 @@
         <v>43</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D302" t="s">
         <v>13</v>
       </c>
       <c r="E302" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -9155,13 +9155,13 @@
         <v>43</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D303" t="s">
         <v>13</v>
       </c>
       <c r="E303" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -9182,13 +9182,13 @@
         <v>43</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D304" t="s">
         <v>13</v>
       </c>
       <c r="E304" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -9209,13 +9209,13 @@
         <v>43</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D305" t="s">
         <v>13</v>
       </c>
       <c r="E305" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -9236,13 +9236,13 @@
         <v>43</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D306" t="s">
         <v>44</v>
       </c>
       <c r="E306" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H306">
         <v>0</v>
@@ -9263,13 +9263,13 @@
         <v>43</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D307" t="s">
         <v>45</v>
       </c>
       <c r="E307" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -9290,13 +9290,13 @@
         <v>43</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D308" t="s">
         <v>31</v>
       </c>
       <c r="E308" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H308">
         <v>0</v>
@@ -9317,13 +9317,13 @@
         <v>43</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D309" t="s">
         <v>7</v>
       </c>
       <c r="E309" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H309">
         <v>0</v>
@@ -9344,13 +9344,13 @@
         <v>43</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D310" t="s">
         <v>7</v>
       </c>
       <c r="E310" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -9371,13 +9371,13 @@
         <v>43</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D311" t="s">
         <v>45</v>
       </c>
       <c r="E311" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H311">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>43</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D312" t="s">
         <v>5</v>
       </c>
       <c r="E312" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H312">
         <v>0</v>
@@ -9425,13 +9425,13 @@
         <v>43</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D313" t="s">
         <v>17</v>
       </c>
       <c r="E313" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H313">
         <v>0</v>
@@ -9452,13 +9452,13 @@
         <v>43</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D314" t="s">
         <v>17</v>
       </c>
       <c r="E314" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H314">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>46</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D315" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E315" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -9503,16 +9503,16 @@
         <v>46</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D316" t="s">
         <v>35</v>
       </c>
       <c r="E316" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -9530,16 +9530,16 @@
         <v>46</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
       </c>
       <c r="E317" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -9557,16 +9557,16 @@
         <v>46</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D318" t="s">
         <v>33</v>
       </c>
       <c r="E318" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -9584,16 +9584,16 @@
         <v>46</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D319" t="s">
         <v>33</v>
       </c>
       <c r="E319" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H319">
         <v>0</v>
@@ -9611,16 +9611,16 @@
         <v>46</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D320" t="s">
         <v>33</v>
       </c>
       <c r="E320" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -9638,16 +9638,16 @@
         <v>46</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D321" t="s">
         <v>26</v>
       </c>
       <c r="E321" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -9665,16 +9665,16 @@
         <v>46</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D322" t="s">
         <v>33</v>
       </c>
       <c r="E322" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -9692,16 +9692,16 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D323" t="s">
         <v>33</v>
       </c>
       <c r="E323" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>46</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D324" t="s">
         <v>33</v>
@@ -9746,10 +9746,10 @@
         <v>46</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D325" t="s">
         <v>33</v>
@@ -9773,10 +9773,10 @@
         <v>47</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D326" t="s">
         <v>33</v>
@@ -9800,10 +9800,10 @@
         <v>47</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D327" t="s">
         <v>33</v>
@@ -9827,16 +9827,16 @@
         <v>47</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D328" t="s">
         <v>33</v>
       </c>
       <c r="E328" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -9854,10 +9854,10 @@
         <v>47</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D329" t="s">
         <v>35</v>
@@ -9881,16 +9881,16 @@
         <v>47</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D330" t="s">
         <v>33</v>
       </c>
       <c r="E330" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H330">
         <v>0</v>
@@ -9908,10 +9908,10 @@
         <v>47</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D331" t="s">
         <v>33</v>
@@ -9932,13 +9932,13 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D332" t="s">
         <v>10</v>
@@ -9959,13 +9959,13 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D333" t="s">
         <v>10</v>
@@ -9986,13 +9986,13 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D334" t="s">
         <v>10</v>
@@ -10013,19 +10013,19 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D335" t="s">
         <v>10</v>
       </c>
       <c r="E335" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -10046,13 +10046,13 @@
         <v>48</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D336" t="s">
         <v>49</v>
       </c>
       <c r="E336" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -10073,13 +10073,13 @@
         <v>48</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D337" t="s">
         <v>7</v>
       </c>
       <c r="E337" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H337">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         <v>48</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D338" t="s">
         <v>31</v>
       </c>
       <c r="E338" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H338">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>48</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D339" t="s">
         <v>31</v>
       </c>
       <c r="E339" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H339">
         <v>0</v>
@@ -10154,13 +10154,13 @@
         <v>48</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D340" t="s">
         <v>37</v>
       </c>
       <c r="E340" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H340">
         <v>0</v>
@@ -10181,13 +10181,13 @@
         <v>48</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D341" t="s">
         <v>37</v>
       </c>
       <c r="E341" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H341">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>48</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D342" t="s">
         <v>37</v>
       </c>
       <c r="E342" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H342">
         <v>0</v>
@@ -10235,13 +10235,13 @@
         <v>48</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D343" t="s">
         <v>37</v>
       </c>
       <c r="E343" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -10262,13 +10262,13 @@
         <v>48</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D344" t="s">
         <v>17</v>
       </c>
       <c r="E344" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H344">
         <v>0</v>
@@ -10289,13 +10289,13 @@
         <v>48</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D345" t="s">
         <v>17</v>
       </c>
       <c r="E345" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -10316,13 +10316,13 @@
         <v>48</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D346" t="s">
         <v>17</v>
       </c>
       <c r="E346" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H346">
         <v>0</v>
@@ -10343,13 +10343,13 @@
         <v>48</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D347" t="s">
         <v>17</v>
       </c>
       <c r="E347" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -10370,13 +10370,13 @@
         <v>48</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D348" t="s">
         <v>5</v>
       </c>
       <c r="E348" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -10394,10 +10394,10 @@
         <v>50</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C349" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D349" t="s">
         <v>13</v>
@@ -10421,10 +10421,10 @@
         <v>50</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C350" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D350" t="s">
         <v>13</v>
@@ -10448,10 +10448,10 @@
         <v>50</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C351" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D351" t="s">
         <v>13</v>
@@ -10475,10 +10475,10 @@
         <v>50</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C352" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D352" t="s">
         <v>13</v>
@@ -10502,10 +10502,10 @@
         <v>50</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C353" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D353" t="s">
         <v>13</v>
@@ -10529,10 +10529,10 @@
         <v>50</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C354" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D354" t="s">
         <v>13</v>
@@ -10556,10 +10556,10 @@
         <v>50</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C355" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D355" t="s">
         <v>13</v>
@@ -10583,10 +10583,10 @@
         <v>50</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C356" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D356" t="s">
         <v>13</v>
@@ -10610,10 +10610,10 @@
         <v>50</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C357" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D357" t="s">
         <v>13</v>
@@ -10637,10 +10637,10 @@
         <v>50</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C358" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D358" t="s">
         <v>13</v>
@@ -10664,10 +10664,10 @@
         <v>50</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C359" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D359" t="s">
         <v>13</v>
@@ -10691,10 +10691,10 @@
         <v>50</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C360" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D360" t="s">
         <v>13</v>
@@ -10718,10 +10718,10 @@
         <v>50</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C361" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D361" t="s">
         <v>13</v>
@@ -10745,10 +10745,10 @@
         <v>50</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C362" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D362" t="s">
         <v>13</v>
@@ -10772,10 +10772,10 @@
         <v>50</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C363" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D363" t="s">
         <v>13</v>
@@ -10799,10 +10799,10 @@
         <v>50</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C364" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D364" t="s">
         <v>13</v>
@@ -10826,10 +10826,10 @@
         <v>50</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C365" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D365" t="s">
         <v>13</v>
@@ -10853,10 +10853,10 @@
         <v>50</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C366" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D366" t="s">
         <v>13</v>
@@ -10880,10 +10880,10 @@
         <v>50</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C367" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D367" t="s">
         <v>13</v>
@@ -10907,10 +10907,10 @@
         <v>50</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C368" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D368" t="s">
         <v>13</v>
@@ -10934,10 +10934,10 @@
         <v>50</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C369" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D369" t="s">
         <v>13</v>
@@ -10961,10 +10961,10 @@
         <v>50</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C370" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D370" t="s">
         <v>13</v>
@@ -10988,10 +10988,10 @@
         <v>50</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C371" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D371" t="s">
         <v>13</v>
@@ -11015,10 +11015,10 @@
         <v>50</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C372" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D372" t="s">
         <v>13</v>
@@ -11042,10 +11042,10 @@
         <v>50</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C373" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D373" t="s">
         <v>13</v>
@@ -11069,10 +11069,10 @@
         <v>50</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C374" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D374" t="s">
         <v>13</v>
@@ -11096,10 +11096,10 @@
         <v>50</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C375" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D375" t="s">
         <v>34</v>
@@ -11123,10 +11123,10 @@
         <v>50</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C376" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D376" t="s">
         <v>34</v>
@@ -11150,10 +11150,10 @@
         <v>50</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C377" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D377" t="s">
         <v>34</v>
@@ -11177,10 +11177,10 @@
         <v>50</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C378" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D378" t="s">
         <v>34</v>
@@ -11204,10 +11204,10 @@
         <v>50</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C379" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D379" t="s">
         <v>34</v>
@@ -11231,10 +11231,10 @@
         <v>50</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C380" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D380" t="s">
         <v>34</v>
@@ -11258,10 +11258,10 @@
         <v>50</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C381" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D381" t="s">
         <v>34</v>
@@ -11285,10 +11285,10 @@
         <v>50</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C382" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D382" t="s">
         <v>34</v>
@@ -11312,10 +11312,10 @@
         <v>50</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C383" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D383" t="s">
         <v>34</v>
@@ -11339,10 +11339,10 @@
         <v>50</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C384" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D384" t="s">
         <v>13</v>
@@ -11366,10 +11366,10 @@
         <v>50</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C385" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D385" t="s">
         <v>13</v>
@@ -11393,10 +11393,10 @@
         <v>50</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C386" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D386" t="s">
         <v>13</v>
@@ -11420,10 +11420,10 @@
         <v>50</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C387" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D387" t="s">
         <v>13</v>
@@ -11447,10 +11447,10 @@
         <v>50</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C388" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D388" t="s">
         <v>13</v>
@@ -11474,10 +11474,10 @@
         <v>50</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C389" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D389" t="s">
         <v>13</v>
@@ -11501,10 +11501,10 @@
         <v>50</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C390" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D390" t="s">
         <v>13</v>
@@ -11528,10 +11528,10 @@
         <v>50</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C391" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D391" t="s">
         <v>13</v>
@@ -11555,10 +11555,10 @@
         <v>50</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C392" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D392" t="s">
         <v>34</v>
@@ -11582,10 +11582,10 @@
         <v>50</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C393" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D393" t="s">
         <v>34</v>
@@ -11609,10 +11609,10 @@
         <v>50</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C394" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D394" t="s">
         <v>34</v>
@@ -11636,10 +11636,10 @@
         <v>50</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C395" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D395" t="s">
         <v>34</v>
@@ -11663,10 +11663,10 @@
         <v>50</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C396" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D396" t="s">
         <v>34</v>
@@ -11690,10 +11690,10 @@
         <v>50</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C397" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D397" t="s">
         <v>34</v>
@@ -11717,10 +11717,10 @@
         <v>50</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C398" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D398" t="s">
         <v>34</v>
@@ -11744,10 +11744,10 @@
         <v>50</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C399" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D399" t="s">
         <v>34</v>
@@ -11771,10 +11771,10 @@
         <v>50</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C400" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D400" t="s">
         <v>34</v>
@@ -11798,10 +11798,10 @@
         <v>50</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C401" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D401" t="s">
         <v>34</v>
@@ -11825,10 +11825,10 @@
         <v>50</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C402" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D402" t="s">
         <v>34</v>
@@ -11852,10 +11852,10 @@
         <v>50</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C403" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D403" t="s">
         <v>34</v>
@@ -11879,10 +11879,10 @@
         <v>50</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C404" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D404" t="s">
         <v>34</v>
@@ -11906,10 +11906,10 @@
         <v>50</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C405" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D405" t="s">
         <v>13</v>
@@ -11933,10 +11933,10 @@
         <v>50</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C406" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D406" t="s">
         <v>13</v>
@@ -11960,10 +11960,10 @@
         <v>50</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C407" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D407" t="s">
         <v>13</v>
@@ -11987,10 +11987,10 @@
         <v>50</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C408" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D408" t="s">
         <v>13</v>
@@ -12014,10 +12014,10 @@
         <v>50</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C409" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D409" t="s">
         <v>13</v>
@@ -12041,10 +12041,10 @@
         <v>50</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C410" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D410" t="s">
         <v>13</v>
@@ -12068,10 +12068,10 @@
         <v>50</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C411" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D411" t="s">
         <v>13</v>
@@ -12095,10 +12095,10 @@
         <v>50</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C412" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D412" t="s">
         <v>13</v>
@@ -12122,10 +12122,10 @@
         <v>50</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C413" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D413" t="s">
         <v>34</v>
@@ -12149,10 +12149,10 @@
         <v>50</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C414" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D414" t="s">
         <v>34</v>
@@ -12176,10 +12176,10 @@
         <v>50</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C415" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D415" t="s">
         <v>34</v>
@@ -12203,10 +12203,10 @@
         <v>50</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C416" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D416" t="s">
         <v>34</v>
@@ -12230,10 +12230,10 @@
         <v>50</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C417" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D417" t="s">
         <v>34</v>
@@ -12257,10 +12257,10 @@
         <v>50</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C418" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D418" t="s">
         <v>34</v>
@@ -12284,10 +12284,10 @@
         <v>50</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C419" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D419" t="s">
         <v>34</v>
@@ -12311,10 +12311,10 @@
         <v>50</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C420" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D420" t="s">
         <v>34</v>
@@ -12338,10 +12338,10 @@
         <v>50</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C421" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D421" t="s">
         <v>34</v>
@@ -12365,10 +12365,10 @@
         <v>50</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C422" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D422" t="s">
         <v>34</v>
@@ -12392,10 +12392,10 @@
         <v>50</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C423" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D423" t="s">
         <v>34</v>
@@ -12419,10 +12419,10 @@
         <v>50</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C424" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D424" t="s">
         <v>34</v>
@@ -12446,10 +12446,10 @@
         <v>50</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C425" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D425" t="s">
         <v>34</v>
@@ -12473,10 +12473,10 @@
         <v>50</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C426" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D426" t="s">
         <v>34</v>
@@ -12500,10 +12500,10 @@
         <v>50</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C427" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D427" t="s">
         <v>34</v>
@@ -12527,10 +12527,10 @@
         <v>50</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C428" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D428" t="s">
         <v>34</v>
@@ -12554,10 +12554,10 @@
         <v>50</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C429" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D429" t="s">
         <v>34</v>
@@ -12581,10 +12581,10 @@
         <v>50</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C430" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D430" t="s">
         <v>34</v>
@@ -12608,10 +12608,10 @@
         <v>50</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C431" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D431" t="s">
         <v>34</v>
@@ -12635,10 +12635,10 @@
         <v>50</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C432" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D432" t="s">
         <v>13</v>
@@ -12662,10 +12662,10 @@
         <v>50</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C433" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D433" t="s">
         <v>13</v>
@@ -12689,10 +12689,10 @@
         <v>50</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C434" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D434" t="s">
         <v>13</v>
@@ -12716,10 +12716,10 @@
         <v>50</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C435" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D435" t="s">
         <v>13</v>
@@ -12743,10 +12743,10 @@
         <v>50</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C436" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D436" t="s">
         <v>13</v>
@@ -12770,10 +12770,10 @@
         <v>50</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C437" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D437" t="s">
         <v>13</v>
@@ -12797,10 +12797,10 @@
         <v>50</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C438" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D438" t="s">
         <v>13</v>
@@ -12824,10 +12824,10 @@
         <v>50</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C439" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D439" t="s">
         <v>13</v>
@@ -12851,10 +12851,10 @@
         <v>50</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C440" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D440" t="s">
         <v>34</v>
@@ -12878,10 +12878,10 @@
         <v>50</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C441" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D441" t="s">
         <v>34</v>
@@ -12905,10 +12905,10 @@
         <v>50</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C442" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D442" t="s">
         <v>34</v>
@@ -12932,10 +12932,10 @@
         <v>50</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C443" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D443" t="s">
         <v>34</v>
@@ -12959,10 +12959,10 @@
         <v>50</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C444" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D444" t="s">
         <v>34</v>
@@ -12986,10 +12986,10 @@
         <v>50</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C445" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D445" t="s">
         <v>34</v>
@@ -13013,10 +13013,10 @@
         <v>50</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C446" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D446" t="s">
         <v>34</v>
@@ -13040,10 +13040,10 @@
         <v>50</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C447" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D447" t="s">
         <v>34</v>
@@ -13067,10 +13067,10 @@
         <v>50</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C448" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D448" t="s">
         <v>34</v>
@@ -13094,10 +13094,10 @@
         <v>50</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C449" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D449" t="s">
         <v>34</v>
@@ -13121,10 +13121,10 @@
         <v>50</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C450" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D450" t="s">
         <v>34</v>
@@ -13148,10 +13148,10 @@
         <v>50</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C451" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D451" t="s">
         <v>34</v>
@@ -13175,10 +13175,10 @@
         <v>50</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C452" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D452" t="s">
         <v>13</v>
@@ -13202,10 +13202,10 @@
         <v>50</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C453" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D453" t="s">
         <v>13</v>
@@ -13229,10 +13229,10 @@
         <v>50</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C454" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D454" t="s">
         <v>13</v>
@@ -13256,10 +13256,10 @@
         <v>50</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C455" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D455" t="s">
         <v>13</v>
@@ -13283,10 +13283,10 @@
         <v>50</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C456" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D456" t="s">
         <v>13</v>
@@ -13310,10 +13310,10 @@
         <v>50</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C457" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D457" t="s">
         <v>13</v>
@@ -13337,10 +13337,10 @@
         <v>50</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C458" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D458" t="s">
         <v>13</v>
@@ -13364,10 +13364,10 @@
         <v>50</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C459" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D459" t="s">
         <v>13</v>
@@ -13391,10 +13391,10 @@
         <v>50</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C460" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D460" t="s">
         <v>13</v>
@@ -13418,10 +13418,10 @@
         <v>50</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C461" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D461" t="s">
         <v>13</v>
@@ -13445,10 +13445,10 @@
         <v>50</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C462" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D462" t="s">
         <v>13</v>
@@ -13472,10 +13472,10 @@
         <v>50</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C463" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D463" t="s">
         <v>13</v>
@@ -13499,10 +13499,10 @@
         <v>50</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C464" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D464" t="s">
         <v>13</v>
@@ -13526,10 +13526,10 @@
         <v>50</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C465" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D465" t="s">
         <v>13</v>
@@ -13553,10 +13553,10 @@
         <v>50</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C466" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D466" t="s">
         <v>13</v>
@@ -13580,10 +13580,10 @@
         <v>50</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C467" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D467" t="s">
         <v>13</v>
@@ -13607,10 +13607,10 @@
         <v>51</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C468" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D468" t="s">
         <v>13</v>
@@ -13634,10 +13634,10 @@
         <v>51</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C469" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D469" t="s">
         <v>13</v>
@@ -13661,10 +13661,10 @@
         <v>51</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C470" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D470" t="s">
         <v>13</v>
@@ -13688,10 +13688,10 @@
         <v>51</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C471" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D471" t="s">
         <v>13</v>
@@ -13715,10 +13715,10 @@
         <v>51</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C472" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D472" t="s">
         <v>13</v>
@@ -13742,10 +13742,10 @@
         <v>51</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C473" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D473" t="s">
         <v>13</v>
@@ -13769,10 +13769,10 @@
         <v>51</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C474" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D474" t="s">
         <v>13</v>
@@ -13796,10 +13796,10 @@
         <v>51</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C475" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D475" t="s">
         <v>13</v>
@@ -13823,10 +13823,10 @@
         <v>51</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C476" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D476" t="s">
         <v>13</v>
@@ -13850,10 +13850,10 @@
         <v>51</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C477" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D477" t="s">
         <v>13</v>
@@ -13877,10 +13877,10 @@
         <v>51</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C478" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D478" t="s">
         <v>13</v>
@@ -13904,10 +13904,10 @@
         <v>51</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C479" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D479" t="s">
         <v>13</v>
@@ -13931,10 +13931,10 @@
         <v>51</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C480" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D480" t="s">
         <v>13</v>
@@ -13958,10 +13958,10 @@
         <v>51</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C481" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D481" t="s">
         <v>13</v>
@@ -13985,10 +13985,10 @@
         <v>51</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C482" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D482" t="s">
         <v>13</v>
@@ -14012,10 +14012,10 @@
         <v>51</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C483" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D483" t="s">
         <v>13</v>
@@ -14039,10 +14039,10 @@
         <v>51</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C484" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D484" t="s">
         <v>13</v>
@@ -14066,10 +14066,10 @@
         <v>51</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C485" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D485" t="s">
         <v>13</v>
@@ -14093,10 +14093,10 @@
         <v>51</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C486" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D486" t="s">
         <v>13</v>
@@ -14120,10 +14120,10 @@
         <v>51</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C487" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D487" t="s">
         <v>13</v>
@@ -14147,10 +14147,10 @@
         <v>51</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C488" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D488" t="s">
         <v>13</v>
@@ -14174,10 +14174,10 @@
         <v>51</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C489" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D489" t="s">
         <v>13</v>
@@ -14201,10 +14201,10 @@
         <v>51</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C490" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D490" t="s">
         <v>13</v>
@@ -14228,10 +14228,10 @@
         <v>51</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C491" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D491" t="s">
         <v>13</v>
@@ -14255,10 +14255,10 @@
         <v>51</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C492" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D492" t="s">
         <v>13</v>
@@ -14282,10 +14282,10 @@
         <v>51</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C493" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D493" t="s">
         <v>13</v>
@@ -14309,10 +14309,10 @@
         <v>51</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C494" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D494" t="s">
         <v>13</v>
@@ -14336,10 +14336,10 @@
         <v>51</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C495" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D495" t="s">
         <v>13</v>
@@ -14363,10 +14363,10 @@
         <v>51</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C496" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D496" t="s">
         <v>13</v>
@@ -14390,10 +14390,10 @@
         <v>51</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C497" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D497" t="s">
         <v>13</v>
@@ -14417,10 +14417,10 @@
         <v>51</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C498" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D498" t="s">
         <v>13</v>
@@ -14444,10 +14444,10 @@
         <v>51</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C499" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D499" t="s">
         <v>13</v>
@@ -14471,10 +14471,10 @@
         <v>51</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C500" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D500" t="s">
         <v>13</v>
@@ -14498,10 +14498,10 @@
         <v>51</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C501" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D501" t="s">
         <v>13</v>
@@ -14525,10 +14525,10 @@
         <v>51</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C502" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D502" t="s">
         <v>13</v>
@@ -14552,10 +14552,10 @@
         <v>51</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C503" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D503" t="s">
         <v>13</v>
@@ -14579,10 +14579,10 @@
         <v>51</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C504" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D504" t="s">
         <v>13</v>
@@ -14606,10 +14606,10 @@
         <v>51</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C505" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D505" t="s">
         <v>13</v>
@@ -14633,10 +14633,10 @@
         <v>51</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C506" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D506" t="s">
         <v>13</v>
@@ -14660,10 +14660,10 @@
         <v>51</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C507" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D507" t="s">
         <v>13</v>
@@ -14687,10 +14687,10 @@
         <v>51</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C508" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D508" t="s">
         <v>13</v>
@@ -14714,10 +14714,10 @@
         <v>51</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C509" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D509" t="s">
         <v>13</v>
@@ -14741,10 +14741,10 @@
         <v>51</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C510" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D510" t="s">
         <v>13</v>
@@ -14768,10 +14768,10 @@
         <v>51</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C511" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D511" t="s">
         <v>13</v>
@@ -14795,10 +14795,10 @@
         <v>51</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C512" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D512" t="s">
         <v>13</v>
@@ -14822,10 +14822,10 @@
         <v>51</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C513" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D513" t="s">
         <v>34</v>
@@ -14849,10 +14849,10 @@
         <v>51</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C514" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D514" t="s">
         <v>34</v>
@@ -14876,10 +14876,10 @@
         <v>51</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C515" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D515" t="s">
         <v>34</v>
@@ -14903,10 +14903,10 @@
         <v>51</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C516" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D516" t="s">
         <v>13</v>
@@ -14930,10 +14930,10 @@
         <v>51</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C517" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D517" t="s">
         <v>13</v>
@@ -14957,10 +14957,10 @@
         <v>51</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C518" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D518" t="s">
         <v>13</v>
@@ -14984,10 +14984,10 @@
         <v>51</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C519" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D519" t="s">
         <v>13</v>
@@ -15011,10 +15011,10 @@
         <v>51</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C520" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D520" t="s">
         <v>13</v>
@@ -15038,10 +15038,10 @@
         <v>51</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C521" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D521" t="s">
         <v>13</v>
@@ -15065,10 +15065,10 @@
         <v>51</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C522" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D522" t="s">
         <v>13</v>
@@ -15092,10 +15092,10 @@
         <v>51</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C523" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D523" t="s">
         <v>13</v>
@@ -15119,10 +15119,10 @@
         <v>51</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C524" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D524" t="s">
         <v>13</v>
@@ -15146,10 +15146,10 @@
         <v>51</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C525" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D525" t="s">
         <v>13</v>
@@ -15173,10 +15173,10 @@
         <v>51</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C526" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D526" t="s">
         <v>13</v>
@@ -15200,10 +15200,10 @@
         <v>51</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C527" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D527" t="s">
         <v>13</v>
@@ -15227,10 +15227,10 @@
         <v>51</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C528" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D528" t="s">
         <v>13</v>
@@ -15254,10 +15254,10 @@
         <v>51</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C529" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D529" t="s">
         <v>13</v>
@@ -15281,10 +15281,10 @@
         <v>51</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C530" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D530" t="s">
         <v>13</v>
@@ -15308,10 +15308,10 @@
         <v>51</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C531" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D531" t="s">
         <v>13</v>
@@ -15335,10 +15335,10 @@
         <v>51</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C532" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D532" t="s">
         <v>13</v>
@@ -15362,10 +15362,10 @@
         <v>51</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C533" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D533" t="s">
         <v>13</v>
@@ -15389,10 +15389,10 @@
         <v>51</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C534" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D534" t="s">
         <v>13</v>
@@ -15416,10 +15416,10 @@
         <v>51</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C535" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D535" t="s">
         <v>13</v>
@@ -15443,10 +15443,10 @@
         <v>51</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C536" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D536" t="s">
         <v>13</v>
@@ -15470,10 +15470,10 @@
         <v>51</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C537" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D537" t="s">
         <v>13</v>
@@ -15497,10 +15497,10 @@
         <v>51</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C538" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D538" t="s">
         <v>13</v>
@@ -15524,10 +15524,10 @@
         <v>51</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C539" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D539" t="s">
         <v>13</v>
@@ -15551,10 +15551,10 @@
         <v>51</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C540" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D540" t="s">
         <v>13</v>
@@ -15578,10 +15578,10 @@
         <v>51</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C541" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D541" t="s">
         <v>13</v>
@@ -15605,10 +15605,10 @@
         <v>51</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C542" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D542" t="s">
         <v>13</v>
@@ -15632,10 +15632,10 @@
         <v>51</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C543" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D543" t="s">
         <v>13</v>
@@ -15659,10 +15659,10 @@
         <v>51</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C544" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D544" t="s">
         <v>34</v>
@@ -15686,10 +15686,10 @@
         <v>51</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C545" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D545" t="s">
         <v>34</v>
@@ -15713,10 +15713,10 @@
         <v>51</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C546" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D546" t="s">
         <v>34</v>
@@ -15740,10 +15740,10 @@
         <v>51</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C547" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D547" t="s">
         <v>34</v>
@@ -15767,10 +15767,10 @@
         <v>51</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C548" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D548" t="s">
         <v>34</v>
@@ -15794,10 +15794,10 @@
         <v>51</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C549" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D549" t="s">
         <v>34</v>
